--- a/bots/crawl_ch/output/electronics_2022-09-05.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-05.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1451,24 +1451,24 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1482,17 +1482,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1553,17 +1553,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -1808,50 +1808,48 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>7032801</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
+          <t>16ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1861,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1871,34 +1869,34 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1907,10 +1905,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1919,12 +1917,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1934,7 +1932,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1949,29 +1947,29 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1980,10 +1978,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2022,34 +2020,34 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>7032804</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>16ST</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2063,12 +2061,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2078,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2088,34 +2086,34 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2123,23 +2121,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2164,34 +2164,34 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7032801</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2230,39 +2230,39 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2301,39 +2301,39 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2342,17 +2342,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2372,39 +2372,39 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7032804</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -2869,153 +2869,153 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3056,17 +3056,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -3673,148 +3673,148 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3838,40 +3838,42 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3880,7 +3882,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3894,46 +3896,44 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 25% Aktion 89.25 Schweizer Franken statt 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3942,17 +3942,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4054,32 +4054,32 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -4097,51 +4097,51 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 25% Aktion 89.25 Schweizer Franken statt 119.00 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
         <v>3</v>
       </c>
-      <c r="F55" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4155,46 +4155,44 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -4203,156 +4201,158 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>49.90</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4366,17 +4366,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4396,34 +4396,34 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4437,17 +4437,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4467,17 +4467,17 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>6805078</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Varta Premium Light F20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4961,34 +4961,34 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
+          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>4425412</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Militärtaschenlampe LED</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/militaertaschenlampe-led/p/4425412</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -5012,105 +5012,85 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 249.00 Schweizer Franken</t>
+          <t>Militärtaschenlampe LED 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6805078</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -5120,12 +5100,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5134,17 +5114,17 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5175,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -5248,24 +5228,24 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4425412</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Militärtaschenlampe LED</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/militaertaschenlampe-led/p/4425412</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5275,12 +5255,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5289,34 +5269,34 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Militärtaschenlampe LED 8.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6689620</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Bügeleisen GC1750/21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5326,12 +5306,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>59.90</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5340,164 +5320,166 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6689620</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>59.90</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>5764836</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>satrap Aqua W4 Wasserkocher</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>satrap Aqua W4 Wasserkocher 25% Aktion 29.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5764836</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5506,7 +5488,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>111.75</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5515,42 +5497,42 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher 25% Aktion 29.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 25% Aktion 111.75 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5559,7 +5541,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>111.75</t>
+          <t>186.75</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5568,42 +5550,42 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 25% Aktion 111.75 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 25% Aktion 186.75 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5612,7 +5594,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>186.75</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5621,42 +5603,42 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 25% Aktion 186.75 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5674,51 +5656,49 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5727,34 +5707,34 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6872922</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend Radio DAB+ DB-23C</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5769,7 +5749,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5778,40 +5758,42 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6872922</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5820,7 +5802,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5829,42 +5811,40 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5873,7 +5853,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5887,29 +5867,29 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5924,7 +5904,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5938,35 +5918,37 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5975,7 +5957,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -5989,156 +5971,158 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>3862219</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Active LED Camping Lanterne</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3862219</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
         <v>0</v>
@@ -6150,26 +6134,42 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-09-05 07:11:52</t>
+          <t>2022-09-05 21:01:03</t>
         </is>
       </c>
     </row>
